--- a/Templates/metabolic rate/7_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/7_template_metabolic_rate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D75907-905E-4F48-9876-7CE617719BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE04F4F-7C9D-449C-941F-0A9B9E67805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="4" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="ShareTrait_metadata" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="144">
   <si>
     <t>Column_name</t>
   </si>
@@ -133,12 +133,6 @@
     <t>respiration_volume</t>
   </si>
   <si>
-    <t>delay_time</t>
-  </si>
-  <si>
-    <t>respiratory_chamber_material</t>
-  </si>
-  <si>
     <t>incubation_time</t>
   </si>
   <si>
@@ -172,21 +166,6 @@
     <t>test_salinity</t>
   </si>
   <si>
-    <t>test_ph</t>
-  </si>
-  <si>
-    <t>test_oxygen</t>
-  </si>
-  <si>
-    <t>test_carbon_dioxide</t>
-  </si>
-  <si>
-    <t>test_oxygen_units</t>
-  </si>
-  <si>
-    <t>test_carbon_dioxide_units</t>
-  </si>
-  <si>
     <t>reproductive_stage</t>
   </si>
   <si>
@@ -253,6 +232,45 @@
     <t>comments_timing</t>
   </si>
   <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>intercept_error_estimate</t>
+  </si>
+  <si>
+    <t>intercept_error_type</t>
+  </si>
+  <si>
+    <t>slope_error_estimate</t>
+  </si>
+  <si>
+    <t>slope_error_type</t>
+  </si>
+  <si>
+    <t>intercept_estimate</t>
+  </si>
+  <si>
+    <t>slope_estimate</t>
+  </si>
+  <si>
+    <t>intercept_lower_range_estimate</t>
+  </si>
+  <si>
+    <t>intercept_upper_range_estimate</t>
+  </si>
+  <si>
+    <t>scaling_sample_size</t>
+  </si>
+  <si>
+    <t>comments_scaling</t>
+  </si>
+  <si>
+    <t>slope_lower_range_estimate</t>
+  </si>
+  <si>
+    <t>slope_upper_range_estimate</t>
+  </si>
+  <si>
     <t>Name of the contact person established in the reference, usually the same as the corresponding author. Names and surnames are separated by "_". Example: Share_Trait</t>
   </si>
   <si>
@@ -310,18 +328,6 @@
     <t>Test salinity</t>
   </si>
   <si>
-    <t>Test ph</t>
-  </si>
-  <si>
-    <t>Test oxygen</t>
-  </si>
-  <si>
-    <t>kPa: kilopascals; sat: saturation; mg_l: miligrams per liter; mL_L: mililiters per liter)</t>
-  </si>
-  <si>
-    <t>ppm: parts per million; atm: atmosphere; micro-atm: micro atmostphere</t>
-  </si>
-  <si>
     <t>type of metabolic rate</t>
   </si>
   <si>
@@ -343,15 +349,6 @@
     <t>mililiter</t>
   </si>
   <si>
-    <t>Provide wait (delay) time excluded from closed measurement cycles. Also referred as equilibration period.</t>
-  </si>
-  <si>
-    <t>Material of respirometer</t>
-  </si>
-  <si>
-    <t>glass; plastic; acrylic</t>
-  </si>
-  <si>
     <t>Time spend in the respirometry chamber</t>
   </si>
   <si>
@@ -409,13 +406,7 @@
     <t>celcius degres</t>
   </si>
   <si>
-    <t>Test carbon dioxide</t>
-  </si>
-  <si>
-    <t>Units used to express the oxygen during testing</t>
-  </si>
-  <si>
-    <t>Units used to express the carbon dioxide during testing</t>
+    <t>Relevant notes about the scaling</t>
   </si>
   <si>
     <t>Number of individuals tested for respiration estimate</t>
@@ -431,6 +422,39 @@
   </si>
   <si>
     <t>mgO2-h-ind; mgO2-h-gFM; mlCO2-h-gFM; etc</t>
+  </si>
+  <si>
+    <t>Error associated with the intercept estimate</t>
+  </si>
+  <si>
+    <t>Error associated with the slope estimate</t>
+  </si>
+  <si>
+    <t>Number of measurements used to estimate the scaling relationship</t>
+  </si>
+  <si>
+    <t>Type of metric used to slope error</t>
+  </si>
+  <si>
+    <t>Type of metric used to intercept error</t>
+  </si>
+  <si>
+    <t>Estimate of the intercept</t>
+  </si>
+  <si>
+    <t>Upper range of the slope estimate</t>
+  </si>
+  <si>
+    <t>Lower range of the slope estimate</t>
+  </si>
+  <si>
+    <t>Estimate of the slope</t>
+  </si>
+  <si>
+    <t>Upper range of the intercept estimate</t>
+  </si>
+  <si>
+    <t>Lower range of the intercept estimate</t>
   </si>
   <si>
     <t>origin</t>
@@ -465,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +556,12 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -560,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,6 +629,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -629,6 +664,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,184 +982,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF31011-05AF-4689-B41B-47C51C374D71}">
-  <dimension ref="A1:AW1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98746876-B21A-4F76-8F62-B74AFF3EEF00}">
+  <dimension ref="A1:BD1"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI7" sqref="AI7"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="31" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="27" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="30" t="s">
+      <c r="AQ1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI1" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT1" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU1" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW1" s="32" t="s">
-        <v>65</v>
+      <c r="AW1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX1" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="39" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="154.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="107.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1135,7 +1252,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1</v>
@@ -1157,10 +1274,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -1174,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
@@ -1188,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -1199,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1</v>
@@ -1216,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1</v>
@@ -1258,10 +1375,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,7 +1403,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>24</v>
@@ -1300,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>1</v>
@@ -1314,7 +1431,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>1</v>
@@ -1325,13 +1442,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
@@ -1353,10 +1470,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>135</v>
+        <v>66</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>1</v>
@@ -1364,461 +1481,559 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>97</v>
+      <c r="C21" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>99</v>
+      <c r="C22" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>101</v>
+      <c r="C23" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>89</v>
+      <c r="C24" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>102</v>
+      <c r="C25" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>104</v>
+      <c r="C26" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>105</v>
+      <c r="C27" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>107</v>
+      <c r="C28" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>108</v>
+      <c r="C29" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>112</v>
+      <c r="C30" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>113</v>
+      <c r="C31" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>116</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>117</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>120</v>
+      <c r="C35" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>122</v>
+      <c r="C36" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>124</v>
+      <c r="C37" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="C50" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="19" t="s">
+      <c r="D57" s="22" t="s">
         <v>1</v>
       </c>
     </row>
